--- a/Documentation/Stack configurations.xlsx
+++ b/Documentation/Stack configurations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\OneDrive - Technion\Simester 3\234118 - Computer Organization and Programing\Homework\HW3\atam_minmax\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0130D4E4-2A5C-4D0A-BC90-2FC9F04A4A61}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8993C90-65B9-431F-8F76-42295741E729}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19884" windowHeight="6924" xr2:uid="{F0843CBC-6047-4987-A961-FFE22227F6D7}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
   <si>
     <t>כתובת לחזרה</t>
   </si>
@@ -98,18 +98,12 @@
     <t>מקום לפלט</t>
   </si>
   <si>
-    <t>ערך השחקן שעבורו רוצים לבדוק נצחון</t>
-  </si>
-  <si>
     <t>מספר צעדים שנותרו לבדיקה</t>
   </si>
   <si>
     <t>ערך שחקן נוכחי</t>
   </si>
   <si>
-    <t>האם בודקים מינימום או מקסימום (1 או 1-)</t>
-  </si>
-  <si>
     <t>getWPRec</t>
   </si>
   <si>
@@ -147,6 +141,9 @@
   </si>
   <si>
     <t>ערך השחקן עבורו רוצים לבדוק האם קיימים מהלכים</t>
+  </si>
+  <si>
+    <t>מינימום או מקסימום (1 או 1-)</t>
   </si>
 </sst>
 </file>
@@ -163,7 +160,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -312,16 +309,7 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -340,6 +328,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -667,766 +664,767 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED36838-DB32-4F96-B1BB-54EA28FED399}">
   <dimension ref="I18:K147"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I56" sqref="I46:K56"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A78" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85:K95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="8.796875" style="2"/>
-    <col min="10" max="10" width="48.19921875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="8" width="8.796875" style="1"/>
+    <col min="9" max="9" width="8.796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="38.09765625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="9:11" ht="18" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="9:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="7"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I20" s="8"/>
-      <c r="J20" s="9" t="s">
+      <c r="I20" s="5"/>
+      <c r="J20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K20" s="10"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I21" s="8"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I22" s="8"/>
-      <c r="J22" s="1" t="s">
+      <c r="I22" s="5"/>
+      <c r="J22" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I23" s="8"/>
-      <c r="J23" s="1" t="s">
+      <c r="I23" s="5"/>
+      <c r="J23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I24" s="8"/>
-      <c r="J24" s="1" t="s">
+      <c r="I24" s="5"/>
+      <c r="J24" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I25" s="8"/>
-      <c r="J25" s="3" t="s">
+      <c r="I25" s="5"/>
+      <c r="J25" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="10"/>
+      <c r="K25" s="7"/>
     </row>
     <row r="26" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I26" s="8"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="10"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="7"/>
     </row>
     <row r="27" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I27" s="8"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="10"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="28" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I28" s="8"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="10"/>
-    </row>
-    <row r="29" spans="9:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="5"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="9:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I29" s="11"/>
       <c r="J29" s="12"/>
       <c r="K29" s="13"/>
     </row>
-    <row r="32" spans="9:11" ht="18" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="9:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I33" s="5"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="7"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="4"/>
     </row>
     <row r="34" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I34" s="8"/>
-      <c r="J34" s="9" t="s">
+      <c r="I34" s="5"/>
+      <c r="J34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K34" s="10"/>
+      <c r="K34" s="7"/>
     </row>
     <row r="35" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I35" s="8"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="10"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="7"/>
     </row>
     <row r="36" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I36" s="8"/>
-      <c r="J36" s="1" t="s">
+      <c r="I36" s="5"/>
+      <c r="J36" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I37" s="8"/>
-      <c r="J37" s="1" t="s">
+      <c r="I37" s="5"/>
+      <c r="J37" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K37" s="10" t="s">
+      <c r="K37" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I38" s="8"/>
-      <c r="J38" s="1" t="s">
+      <c r="I38" s="5"/>
+      <c r="J38" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="10" t="s">
+      <c r="K38" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="39" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I39" s="8"/>
-      <c r="J39" s="3" t="s">
+      <c r="I39" s="5"/>
+      <c r="J39" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K39" s="10"/>
+      <c r="K39" s="7"/>
     </row>
     <row r="40" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I40" s="8"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="10"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="7"/>
     </row>
     <row r="41" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I41" s="8"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="10"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="7"/>
     </row>
     <row r="42" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I42" s="8"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="9:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I42" s="5"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="9:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I43" s="11"/>
       <c r="J43" s="12"/>
       <c r="K43" s="13"/>
     </row>
-    <row r="45" spans="9:11" ht="18" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="9:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I46" s="5"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="7"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="4"/>
     </row>
     <row r="47" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I47" s="8"/>
-      <c r="J47" s="9" t="s">
+      <c r="I47" s="5"/>
+      <c r="J47" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="10"/>
+      <c r="K47" s="7"/>
     </row>
     <row r="48" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I48" s="8"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="10"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="7"/>
     </row>
     <row r="49" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I49" s="8"/>
-      <c r="J49" s="1" t="s">
+      <c r="I49" s="5"/>
+      <c r="J49" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K49" s="10" t="s">
+      <c r="K49" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I50" s="8"/>
-      <c r="J50" s="1" t="s">
+      <c r="I50" s="5"/>
+      <c r="J50" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="10" t="s">
+      <c r="K50" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I51" s="8"/>
-      <c r="J51" s="3" t="s">
+      <c r="I51" s="5"/>
+      <c r="J51" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K51" s="10"/>
+      <c r="K51" s="7"/>
     </row>
     <row r="52" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I52" s="8"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="10"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="7"/>
     </row>
     <row r="53" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I53" s="8"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="10"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="7"/>
     </row>
     <row r="54" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I54" s="8"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="10"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="7"/>
     </row>
     <row r="55" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I55" s="8"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="10"/>
-    </row>
-    <row r="56" spans="9:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I55" s="5"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="7"/>
+    </row>
+    <row r="56" spans="9:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I56" s="11"/>
       <c r="J56" s="12"/>
       <c r="K56" s="13"/>
     </row>
-    <row r="58" spans="9:11" ht="18" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="9:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I59" s="5"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="7"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="4"/>
     </row>
     <row r="60" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I60" s="8"/>
-      <c r="J60" s="9" t="s">
+      <c r="I60" s="5"/>
+      <c r="J60" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K60" s="10"/>
+      <c r="K60" s="7"/>
     </row>
     <row r="61" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I61" s="8"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="10"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="7"/>
     </row>
     <row r="62" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I62" s="8"/>
-      <c r="J62" s="1" t="s">
+      <c r="I62" s="5"/>
+      <c r="J62" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K62" s="10" t="s">
+      <c r="K62" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="63" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I63" s="8"/>
-      <c r="J63" s="1" t="s">
+      <c r="I63" s="5"/>
+      <c r="J63" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K63" s="10" t="s">
+      <c r="K63" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I64" s="8"/>
-      <c r="J64" s="1" t="s">
+      <c r="I64" s="5"/>
+      <c r="J64" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K64" s="10" t="s">
+      <c r="K64" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="65" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I65" s="8"/>
-      <c r="J65" s="1" t="s">
+      <c r="I65" s="5"/>
+      <c r="J65" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K65" s="10" t="s">
+      <c r="K65" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="66" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I66" s="8"/>
-      <c r="J66" s="3" t="s">
+      <c r="I66" s="5"/>
+      <c r="J66" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K66" s="10"/>
+      <c r="K66" s="7"/>
     </row>
     <row r="67" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I67" s="8"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="10"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="7"/>
     </row>
     <row r="68" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I68" s="8"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="10"/>
-    </row>
-    <row r="69" spans="9:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I68" s="5"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="7"/>
+    </row>
+    <row r="69" spans="9:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I69" s="11"/>
       <c r="J69" s="12"/>
       <c r="K69" s="13"/>
     </row>
-    <row r="71" spans="9:11" ht="18" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="9:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I72" s="5"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="7"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="4"/>
     </row>
     <row r="73" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I73" s="8"/>
-      <c r="J73" s="9" t="s">
+      <c r="I73" s="5"/>
+      <c r="J73" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K73" s="10"/>
+      <c r="K73" s="7"/>
     </row>
     <row r="74" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I74" s="8"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="10"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="7"/>
     </row>
     <row r="75" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I75" s="8"/>
-      <c r="J75" s="1" t="s">
+      <c r="I75" s="5"/>
+      <c r="J75" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K75" s="10" t="s">
+      <c r="K75" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I76" s="8"/>
-      <c r="J76" s="1" t="s">
+      <c r="I76" s="5"/>
+      <c r="J76" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K76" s="10" t="s">
+      <c r="K76" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="77" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I77" s="8"/>
-      <c r="J77" s="1" t="s">
+      <c r="I77" s="5"/>
+      <c r="J77" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K77" s="10" t="s">
+      <c r="K77" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="78" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I78" s="8"/>
-      <c r="J78" s="1" t="s">
+      <c r="I78" s="5"/>
+      <c r="J78" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K78" s="10" t="s">
+      <c r="K78" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="79" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I79" s="8"/>
-      <c r="J79" s="3" t="s">
+      <c r="I79" s="5"/>
+      <c r="J79" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K79" s="10"/>
+      <c r="K79" s="7"/>
     </row>
     <row r="80" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I80" s="8"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="10"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="7"/>
     </row>
     <row r="81" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I81" s="8"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="10"/>
-    </row>
-    <row r="82" spans="9:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I81" s="5"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="7"/>
+    </row>
+    <row r="82" spans="9:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I82" s="11"/>
       <c r="J82" s="12"/>
       <c r="K82" s="13"/>
     </row>
-    <row r="84" spans="9:11" ht="18" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="9:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="85" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I85" s="5"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="7"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="4"/>
     </row>
     <row r="86" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I86" s="8"/>
-      <c r="J86" s="9" t="s">
+      <c r="I86" s="5"/>
+      <c r="J86" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K86" s="10"/>
+      <c r="K86" s="7"/>
     </row>
     <row r="87" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I87" s="8"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="10"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="7"/>
     </row>
     <row r="88" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I88" s="8"/>
-      <c r="J88" s="1" t="s">
+      <c r="I88" s="5"/>
+      <c r="J88" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K88" s="10" t="s">
+      <c r="K88" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="89" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I89" s="8"/>
-      <c r="J89" s="1" t="s">
+      <c r="I89" s="5"/>
+      <c r="J89" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K89" s="10" t="s">
+      <c r="K89" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="90" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I90" s="8"/>
-      <c r="J90" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K90" s="10" t="s">
+      <c r="I90" s="5"/>
+      <c r="J90" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K90" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="91" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I91" s="8"/>
-      <c r="J91" s="1" t="s">
+      <c r="I91" s="5"/>
+      <c r="J91" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K91" s="10" t="s">
+      <c r="K91" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="92" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I92" s="8"/>
-      <c r="J92" s="3" t="s">
+      <c r="I92" s="5"/>
+      <c r="J92" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K92" s="10"/>
+      <c r="K92" s="7"/>
     </row>
     <row r="93" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I93" s="8"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="10"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="7"/>
     </row>
     <row r="94" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I94" s="8"/>
-      <c r="J94" s="9"/>
-      <c r="K94" s="10"/>
-    </row>
-    <row r="95" spans="9:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I94" s="5"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="7"/>
+    </row>
+    <row r="95" spans="9:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I95" s="11"/>
       <c r="J95" s="12"/>
       <c r="K95" s="13"/>
     </row>
-    <row r="97" spans="9:11" ht="18" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="9:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="98" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I98" s="5"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="7"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="4"/>
     </row>
     <row r="99" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I99" s="8"/>
-      <c r="J99" s="9" t="s">
+      <c r="I99" s="5"/>
+      <c r="J99" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K99" s="7"/>
+    </row>
+    <row r="100" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I100" s="5"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="7"/>
+    </row>
+    <row r="101" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I101" s="5"/>
+      <c r="J101" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I102" s="5"/>
+      <c r="J102" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I103" s="5"/>
+      <c r="J103" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I104" s="5"/>
+      <c r="J104" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I105" s="5"/>
+      <c r="J105" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K105" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I106" s="5"/>
+      <c r="J106" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K99" s="10"/>
-    </row>
-    <row r="100" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I100" s="8"/>
-      <c r="J100" s="9"/>
-      <c r="K100" s="10"/>
-    </row>
-    <row r="101" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I101" s="8"/>
-      <c r="J101" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K101" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I102" s="8"/>
-      <c r="J102" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K102" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I103" s="8"/>
-      <c r="J103" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K103" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I104" s="8"/>
-      <c r="J104" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K104" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I105" s="8"/>
-      <c r="J105" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K105" s="10" t="s">
+      <c r="K106" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I106" s="8"/>
-      <c r="J106" s="1" t="s">
+    <row r="107" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I107" s="5"/>
+      <c r="J107" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K107" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K106" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="107" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I107" s="8"/>
-      <c r="J107" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K107" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="108" spans="9:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="9:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I108" s="11"/>
       <c r="J108" s="12"/>
       <c r="K108" s="13"/>
     </row>
-    <row r="110" spans="9:11" ht="18" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="9:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="111" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I111" s="5"/>
-      <c r="J111" s="6"/>
-      <c r="K111" s="7"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="4"/>
     </row>
     <row r="112" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I112" s="8"/>
-      <c r="J112" s="9" t="s">
+      <c r="I112" s="5"/>
+      <c r="J112" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K112" s="7"/>
+    </row>
+    <row r="113" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I113" s="5"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="7"/>
+    </row>
+    <row r="114" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I114" s="5"/>
+      <c r="J114" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K114" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I115" s="5"/>
+      <c r="J115" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K115" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I116" s="5"/>
+      <c r="J116" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K112" s="10"/>
-    </row>
-    <row r="113" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I113" s="8"/>
-      <c r="J113" s="9"/>
-      <c r="K113" s="10"/>
-    </row>
-    <row r="114" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I114" s="8"/>
-      <c r="J114" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K114" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I115" s="8"/>
-      <c r="J115" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K115" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I116" s="8"/>
-      <c r="J116" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K116" s="10" t="s">
+      <c r="K116" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="117" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I117" s="8"/>
-      <c r="J117" s="3" t="s">
+      <c r="I117" s="5"/>
+      <c r="J117" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K117" s="10"/>
+      <c r="K117" s="7"/>
     </row>
     <row r="118" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I118" s="8"/>
-      <c r="J118" s="4"/>
-      <c r="K118" s="10"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="10"/>
+      <c r="K118" s="7"/>
     </row>
     <row r="119" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I119" s="8"/>
-      <c r="J119" s="4"/>
-      <c r="K119" s="10"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="10"/>
+      <c r="K119" s="7"/>
     </row>
     <row r="120" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I120" s="8"/>
-      <c r="J120" s="9"/>
-      <c r="K120" s="10"/>
-    </row>
-    <row r="121" spans="9:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I120" s="5"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="7"/>
+    </row>
+    <row r="121" spans="9:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I121" s="11"/>
       <c r="J121" s="12"/>
       <c r="K121" s="13"/>
     </row>
-    <row r="123" spans="9:11" ht="18" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="9:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="124" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I124" s="5"/>
-      <c r="J124" s="6"/>
-      <c r="K124" s="7"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="4"/>
     </row>
     <row r="125" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I125" s="8"/>
-      <c r="J125" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K125" s="10"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K125" s="7"/>
     </row>
     <row r="126" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I126" s="8"/>
-      <c r="J126" s="9"/>
-      <c r="K126" s="10"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="7"/>
     </row>
     <row r="127" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I127" s="8"/>
-      <c r="J127" s="1" t="s">
+      <c r="I127" s="5"/>
+      <c r="J127" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K127" s="10" t="s">
+      <c r="K127" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="128" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I128" s="8"/>
-      <c r="J128" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K128" s="10" t="s">
+      <c r="I128" s="5"/>
+      <c r="J128" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K128" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="129" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I129" s="8"/>
-      <c r="J129" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K129" s="10" t="s">
+      <c r="I129" s="5"/>
+      <c r="J129" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K129" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="130" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I130" s="8"/>
-      <c r="J130" s="3" t="s">
+      <c r="I130" s="5"/>
+      <c r="J130" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K130" s="10"/>
+      <c r="K130" s="7"/>
     </row>
     <row r="131" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I131" s="8"/>
-      <c r="J131" s="4"/>
-      <c r="K131" s="10"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="10"/>
+      <c r="K131" s="7"/>
     </row>
     <row r="132" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I132" s="8"/>
-      <c r="J132" s="4"/>
-      <c r="K132" s="10"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="10"/>
+      <c r="K132" s="7"/>
     </row>
     <row r="133" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I133" s="8"/>
-      <c r="J133" s="9"/>
-      <c r="K133" s="10"/>
-    </row>
-    <row r="134" spans="9:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I133" s="5"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="7"/>
+    </row>
+    <row r="134" spans="9:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I134" s="11"/>
       <c r="J134" s="12"/>
       <c r="K134" s="13"/>
     </row>
-    <row r="136" spans="9:11" ht="18" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="9:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="137" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I137" s="5"/>
-      <c r="J137" s="6"/>
-      <c r="K137" s="7"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="4"/>
     </row>
     <row r="138" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I138" s="8"/>
-      <c r="J138" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K138" s="10"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K138" s="7"/>
     </row>
     <row r="139" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I139" s="8"/>
-      <c r="J139" s="9"/>
-      <c r="K139" s="10"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="7"/>
     </row>
     <row r="140" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I140" s="8"/>
-      <c r="J140" s="1" t="s">
+      <c r="I140" s="5"/>
+      <c r="J140" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K140" s="10" t="s">
+      <c r="K140" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="141" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I141" s="8"/>
-      <c r="J141" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K141" s="10" t="s">
+      <c r="I141" s="5"/>
+      <c r="J141" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K141" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="142" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I142" s="8"/>
-      <c r="J142" s="3" t="s">
+      <c r="I142" s="5"/>
+      <c r="J142" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K142" s="10"/>
+      <c r="K142" s="7"/>
     </row>
     <row r="143" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I143" s="8"/>
-      <c r="J143" s="4"/>
-      <c r="K143" s="10"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="10"/>
+      <c r="K143" s="7"/>
     </row>
     <row r="144" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I144" s="8"/>
-      <c r="J144" s="4"/>
-      <c r="K144" s="10"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="10"/>
+      <c r="K144" s="7"/>
     </row>
     <row r="145" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I145" s="8"/>
-      <c r="J145" s="4"/>
-      <c r="K145" s="10"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="10"/>
+      <c r="K145" s="7"/>
     </row>
     <row r="146" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I146" s="8"/>
-      <c r="J146" s="9"/>
-      <c r="K146" s="10"/>
-    </row>
-    <row r="147" spans="9:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I146" s="5"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="7"/>
+    </row>
+    <row r="147" spans="9:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I147" s="11"/>
       <c r="J147" s="12"/>
       <c r="K147" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="J51:J54"/>
+    <mergeCell ref="J66:J67"/>
     <mergeCell ref="J142:J145"/>
     <mergeCell ref="J79:J80"/>
     <mergeCell ref="J92:J93"/>
     <mergeCell ref="J117:J119"/>
     <mergeCell ref="J130:J132"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="J51:J54"/>
-    <mergeCell ref="J66:J67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
